--- a/Collective_Predicates.xlsx
+++ b/Collective_Predicates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Work\GitHub\data_generation\.idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\GitHub\data_generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4344" windowHeight="6444"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4341" windowHeight="6448"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,108 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
-  <si>
-    <t>blend</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>S\NP</t>
   </si>
   <si>
-    <t>coincide</t>
-  </si>
-  <si>
-    <t>combine</t>
-  </si>
-  <si>
-    <t>connect</t>
-  </si>
-  <si>
-    <t>disperse</t>
-  </si>
-  <si>
-    <t>diversify</t>
-  </si>
-  <si>
-    <t>divide</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>marry</t>
   </si>
   <si>
-    <t>merge</t>
-  </si>
-  <si>
-    <t>mix</t>
-  </si>
-  <si>
     <t>network</t>
   </si>
   <si>
-    <t>rejoin</t>
-  </si>
-  <si>
-    <t>split</t>
-  </si>
-  <si>
-    <t>unify</t>
-  </si>
-  <si>
-    <t>unite</t>
-  </si>
-  <si>
     <t>wed</t>
   </si>
   <si>
-    <t>accumulate</t>
-  </si>
-  <si>
-    <t>amass</t>
-  </si>
-  <si>
-    <t>assemble</t>
-  </si>
-  <si>
-    <t>clash</t>
-  </si>
-  <si>
-    <t>convene</t>
-  </si>
-  <si>
-    <t>converge</t>
-  </si>
-  <si>
-    <t>differ</t>
-  </si>
-  <si>
-    <t>contrast</t>
-  </si>
-  <si>
-    <t>gather</t>
-  </si>
-  <si>
-    <t>flock</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>vary</t>
-  </si>
-  <si>
-    <t>collide</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>associate</t>
+  </si>
+  <si>
+    <t>IV_ag_pl</t>
   </si>
 </sst>
 </file>
@@ -141,15 +57,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,15 +79,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,7 +115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,264 +377,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="F1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F1" sqref="F1:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
+    <row r="26" x14ac:dyDescent="0.3"/>
+    <row r="27" x14ac:dyDescent="0.3"/>
+    <row r="28" x14ac:dyDescent="0.3"/>
+    <row r="30" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
